--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyaocai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyaocai/Desktop/downloadFIleTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5740" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iOS-appnew.ly.com" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="iOS-img1.40017.cn" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iOS-css.40017.cn'!$A$1:$H$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'iOS-js.40017.cn'!$A$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'iOS-css.40017.cn'!$A$1:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'iOS-js.40017.cn'!$A$1:$E$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'iOS-js.40017.cn-bridge'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>/hc/1/img/icon_tg_loading1.gif</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>/hc/1/js/zepto.all.js</t>
-  </si>
-  <si>
-    <t>/hc/1/js/myslider.js</t>
   </si>
   <si>
     <t>/hc/1/img/loading_black1.gif</t>
@@ -231,9 +228,6 @@
     <t>/touch/hb/c/2/js/fedapm.umd.2.1.5.js</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/js/lazyLoadJs.1.0.0.js</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/js/naBridgeJs.2.3.0.js</t>
   </si>
   <si>
@@ -327,15 +321,9 @@
     <t>/touch/hb/c/bridge.2.3.3.js</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/js/h5only/confh5/confH5Js.3.0.0.js</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/js/dropRefreshJs.3.0.3.js</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/js/h5only/confh5/confH5Js.1.1.2.js</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/js/seaJs.2.2.3.js</t>
   </si>
   <si>
@@ -399,9 +387,6 @@
     <t>/touch/hb/c/2/js/sliderJs.3.0.0.js</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/js/h5only/confh5/confH5Js.1.0.2.js</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/vue/vue.min.2.5.3.js</t>
   </si>
   <si>
@@ -441,16 +426,7 @@
     <t>/touch/hb/c/2/js/dropRefreshJs.1.0.0.js</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/js/naBridgejs.2.2.6.js</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/js/c.utilJs.1.0.1.js</t>
-  </si>
-  <si>
-    <t>/touch/hb/c/2/lscacher/lscacher.js</t>
-  </si>
-  <si>
-    <t>/touch/hb/c/2/vue/md5cache.min.js</t>
   </si>
   <si>
     <t>/touch/hb/c/2/js/tabJs.1.0.0.js</t>
@@ -519,9 +495,6 @@
     <t>/touch/hb/c/2/css/c.utilCss.1.0.0.css</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/css/baseCss.1.0.0.css</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/vue/style.1.0.8.min.css</t>
   </si>
   <si>
@@ -555,13 +528,7 @@
     <t>/touch/hb/c/2/css/c.utilCss.1.0.1.css</t>
   </si>
   <si>
-    <t>/touch/hb/c/2/css/fonts/icomoon.svg</t>
-  </si>
-  <si>
     <t>/touch/hb/c/2/img/icon_no_network.svg</t>
-  </si>
-  <si>
-    <t>/touch/hb/c/2/img/h5only/online-talk.png</t>
   </si>
   <si>
     <t>/touch/hb/c/2/img/icon_tg_loading1.gif</t>
@@ -581,6 +548,14 @@
   </si>
   <si>
     <t>/touch/hb/c/2/css/basewebCss.1.0.0.css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/touch/hb/c/2/js/lazyLoadJs.1.0.0.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hc/1/js/myslider.js</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -940,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,16 +928,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -1072,7 +1047,7 @@
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1">
         <v>17699</v>
@@ -1085,12 +1060,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>15109</v>
@@ -1105,7 +1080,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>14539</v>
@@ -1120,7 +1095,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>12364</v>
@@ -1135,7 +1110,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>11992</v>
@@ -1150,7 +1125,7 @@
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>9328</v>
@@ -1165,7 +1140,7 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>9300</v>
@@ -1180,7 +1155,7 @@
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>8888</v>
@@ -1195,7 +1170,7 @@
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>8284</v>
@@ -1210,7 +1185,7 @@
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>7762</v>
@@ -1225,7 +1200,7 @@
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>7298</v>
@@ -1240,7 +1215,7 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>7095</v>
@@ -1255,7 +1230,7 @@
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>6837</v>
@@ -1270,7 +1245,7 @@
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>6130</v>
@@ -1285,7 +1260,7 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>5641</v>
@@ -1300,7 +1275,7 @@
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <v>4761</v>
@@ -1315,7 +1290,7 @@
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>4079</v>
@@ -1330,7 +1305,7 @@
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>3855</v>
@@ -1345,7 +1320,7 @@
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>3629</v>
@@ -1360,7 +1335,7 @@
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
         <v>3284</v>
@@ -1375,7 +1350,7 @@
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>2712</v>
@@ -1390,7 +1365,7 @@
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>999</v>
@@ -1405,7 +1380,7 @@
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>803</v>
@@ -1417,7 +1392,7 @@
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>762</v>
@@ -1429,7 +1404,7 @@
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <v>539</v>
@@ -1441,7 +1416,7 @@
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1">
         <v>89</v>
@@ -1453,7 +1428,7 @@
     </row>
     <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
         <v>67</v>
@@ -1465,7 +1440,7 @@
     </row>
     <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>67</v>
@@ -1477,7 +1452,7 @@
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1">
         <v>16</v>
@@ -1489,7 +1464,7 @@
     </row>
     <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
@@ -1501,7 +1476,7 @@
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>9</v>
@@ -1513,7 +1488,7 @@
     </row>
     <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -1542,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,21 +1534,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
@@ -1584,7 +1559,7 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -1595,7 +1570,7 @@
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
         <v>3895</v>
@@ -1606,7 +1581,7 @@
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1">
         <v>17</v>
@@ -1617,7 +1592,7 @@
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1">
         <v>22</v>
@@ -1628,7 +1603,7 @@
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>256</v>
@@ -1639,7 +1614,7 @@
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1">
         <v>127</v>
@@ -1650,7 +1625,7 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
         <v>4848</v>
@@ -1661,7 +1636,7 @@
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>3885</v>
@@ -1672,7 +1647,7 @@
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
         <v>51</v>
@@ -1683,7 +1658,7 @@
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
         <v>3210</v>
@@ -1694,7 +1669,7 @@
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1">
         <v>123</v>
@@ -1705,7 +1680,7 @@
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -1716,7 +1691,7 @@
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1727,7 +1702,7 @@
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1">
         <v>66</v>
@@ -1738,7 +1713,7 @@
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1">
         <v>29</v>
@@ -1749,7 +1724,7 @@
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>3546</v>
@@ -1760,7 +1735,7 @@
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
@@ -1771,7 +1746,7 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>3290</v>
@@ -1782,7 +1757,7 @@
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>6213</v>
@@ -1793,7 +1768,7 @@
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
         <v>3669</v>
@@ -1804,7 +1779,7 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>3710</v>
@@ -1815,7 +1790,7 @@
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>8515</v>
@@ -1826,7 +1801,7 @@
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
         <v>6038</v>
@@ -1837,7 +1812,7 @@
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <v>452</v>
@@ -1848,7 +1823,7 @@
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1">
         <v>92</v>
@@ -1859,7 +1834,7 @@
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
         <v>5207</v>
@@ -1870,7 +1845,7 @@
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1">
         <v>4466</v>
@@ -1881,7 +1856,7 @@
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1">
         <v>339</v>
@@ -1892,7 +1867,7 @@
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1">
         <v>136</v>
@@ -1903,7 +1878,7 @@
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1">
         <v>136</v>
@@ -1914,7 +1889,7 @@
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1">
         <v>235</v>
@@ -1925,7 +1900,7 @@
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1">
         <v>146</v>
@@ -1936,7 +1911,7 @@
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>6181</v>
@@ -1947,7 +1922,7 @@
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1">
         <v>466</v>
@@ -1958,7 +1933,7 @@
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1">
         <v>17</v>
@@ -1969,7 +1944,7 @@
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1">
         <v>132</v>
@@ -1980,7 +1955,7 @@
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
         <v>269</v>
@@ -1991,7 +1966,7 @@
     </row>
     <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1">
         <v>108</v>
@@ -2000,18 +1975,18 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1">
         <v>350</v>
@@ -2031,7 +2006,7 @@
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -2051,7 +2026,7 @@
     </row>
     <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1">
         <v>43</v>
@@ -2065,7 +2040,7 @@
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1">
         <v>4733</v>
@@ -2079,7 +2054,7 @@
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>5765</v>
@@ -2090,7 +2065,7 @@
     </row>
     <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1">
         <v>192</v>
@@ -2101,7 +2076,7 @@
     </row>
     <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1">
         <v>395</v>
@@ -2112,7 +2087,7 @@
     </row>
     <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1">
         <v>6050</v>
@@ -2123,7 +2098,7 @@
     </row>
     <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1">
         <v>26</v>
@@ -2134,7 +2109,7 @@
     </row>
     <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1">
         <v>100</v>
@@ -2145,7 +2120,7 @@
     </row>
     <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1">
         <v>101</v>
@@ -2156,7 +2131,7 @@
     </row>
     <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1">
         <v>54013</v>
@@ -2167,7 +2142,7 @@
     </row>
     <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1">
         <v>40802</v>
@@ -2178,7 +2153,7 @@
     </row>
     <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1">
         <v>35783</v>
@@ -2189,7 +2164,7 @@
     </row>
     <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1">
         <v>30409</v>
@@ -2200,7 +2175,7 @@
     </row>
     <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1">
         <v>29296</v>
@@ -2211,7 +2186,7 @@
     </row>
     <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1">
         <v>27229</v>
@@ -2222,7 +2197,7 @@
     </row>
     <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1">
         <v>17708</v>
@@ -2233,7 +2208,7 @@
     </row>
     <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>15716</v>
@@ -2244,7 +2219,7 @@
     </row>
     <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1">
         <v>14584</v>
@@ -2253,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1">
         <v>13325</v>
@@ -2269,7 +2244,7 @@
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1">
         <v>12916</v>
@@ -2280,7 +2255,7 @@
     </row>
     <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1">
         <v>6465</v>
@@ -2291,7 +2266,7 @@
     </row>
     <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1">
         <v>5187</v>
@@ -2302,7 +2277,7 @@
     </row>
     <row r="65" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1">
         <v>1616</v>
@@ -2313,7 +2288,7 @@
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1">
         <v>1523</v>
@@ -2324,7 +2299,7 @@
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1">
         <v>1419</v>
@@ -2335,7 +2310,7 @@
     </row>
     <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1">
         <v>1147</v>
@@ -2346,7 +2321,7 @@
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1">
         <v>954</v>
@@ -2357,10 +2332,10 @@
     </row>
     <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2368,10 +2343,10 @@
     </row>
     <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2379,10 +2354,10 @@
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2390,134 +2365,21 @@
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="1">
-        <v>266</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="1">
-        <v>137</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="1">
-        <v>103</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="1">
-        <v>9</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="1">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="1">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E79">
-    <sortState ref="A52:E79">
-      <sortCondition descending="1" ref="B1:B79"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:D91">
-    <sortCondition ref="A1"/>
-  </sortState>
+  <autoFilter ref="A1:E73"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2528,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2540,15 +2402,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>53499</v>
@@ -2556,7 +2418,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>37141</v>
@@ -2564,7 +2426,7 @@
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>18121</v>
@@ -2572,7 +2434,7 @@
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>6630</v>
@@ -2580,7 +2442,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>5359</v>
@@ -2588,7 +2450,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>3501</v>
@@ -2596,7 +2458,7 @@
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>3025</v>
@@ -2604,7 +2466,7 @@
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>859</v>
@@ -2612,7 +2474,7 @@
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>364</v>
@@ -2620,7 +2482,7 @@
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
         <v>167</v>
@@ -2628,7 +2490,7 @@
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -2647,11 +2509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,112 +2524,112 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1">
-        <v>17217</v>
+        <v>7632</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1">
+        <v>296</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="1">
-        <v>7632</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="B4" s="1">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2776,48 +2637,51 @@
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1">
-        <v>2624</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1">
-        <v>15</v>
+        <v>17217</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1">
+        <v>2624</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1">
         <v>695</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1">
-        <v>451</v>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1">
         <v>649</v>
@@ -2828,7 +2692,7 @@
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1">
         <v>550</v>
@@ -2839,7 +2703,7 @@
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1">
         <v>378</v>
@@ -2850,7 +2714,7 @@
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1">
         <v>277</v>
@@ -2859,37 +2723,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H20">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:H20">
-      <sortCondition descending="1" ref="B1:B20"/>
+  <autoFilter ref="A1:H18">
+    <sortState ref="A2:D19">
+      <sortCondition descending="1" ref="D1:D19"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2900,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2914,21 +2751,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1">
         <v>7416</v>
@@ -2939,7 +2776,7 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1">
         <v>2739</v>
@@ -2950,7 +2787,7 @@
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
@@ -2961,7 +2798,7 @@
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1">
         <v>33</v>
@@ -2972,24 +2809,13 @@
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1">
         <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
